--- a/src/main/resources/files/example.xlsx
+++ b/src/main/resources/files/example.xlsx
@@ -902,20 +902,20 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1241,7 +1241,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5389,11 +5389,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -5407,55 +5407,55 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="6" t="s">
         <v>72</v>
       </c>
@@ -5500,7 +5500,7 @@
       <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -5520,7 +5520,7 @@
       <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -5529,7 +5529,7 @@
       <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -5538,7 +5538,7 @@
       <c r="B16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -5547,7 +5547,7 @@
       <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
@@ -5556,7 +5556,7 @@
       <c r="B18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
@@ -5565,7 +5565,7 @@
       <c r="B19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -5574,7 +5574,7 @@
       <c r="B20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
@@ -5583,7 +5583,7 @@
       <c r="B21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
@@ -5592,7 +5592,7 @@
       <c r="B22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
@@ -5601,7 +5601,7 @@
       <c r="B23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -5611,7 +5611,7 @@
       <c r="B24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -5621,7 +5621,7 @@
       <c r="B25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -5631,7 +5631,7 @@
       <c r="B26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -5641,7 +5641,7 @@
       <c r="B27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -5651,7 +5651,7 @@
       <c r="B28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="15"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -5661,7 +5661,7 @@
       <c r="B29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="15"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="31" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
@@ -5671,68 +5671,73 @@
       <c r="C31" s="13"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
     </row>
     <row r="36" spans="1:3" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
     </row>
     <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
     </row>
     <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
     </row>
     <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
     </row>
     <row r="41" spans="1:3" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="C12:C29"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:B2"/>
@@ -5741,11 +5746,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="C12:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
